--- a/Offline/BusinessManagement/Ops/Ops-2023/Ops-2023-11.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2023/Ops-2023-11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Ops-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B4AE5F-8778-48FB-B297-2F02D5CADC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64158368-6F56-4076-B01C-DA10660AF93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="262">
   <si>
     <t>Course</t>
   </si>
@@ -926,6 +926,9 @@
   </si>
   <si>
     <t>He did class for 1 and half hours</t>
+  </si>
+  <si>
+    <t>1) Chemical Bonding</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1716,11 +1719,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1772,9 +1849,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1960,7 +2034,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2039,6 +2112,21 @@
     <xf numFmtId="14" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2078,12 +2166,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2123,20 +2205,32 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2515,7 +2609,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="84" t="s">
         <v>75</v>
       </c>
       <c r="C1">
@@ -2523,7 +2617,7 @@
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="84" t="s">
         <v>74</v>
       </c>
       <c r="C2">
@@ -2531,7 +2625,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>73</v>
       </c>
       <c r="C3">
@@ -2539,7 +2633,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>76</v>
       </c>
       <c r="C4">
@@ -2547,7 +2641,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>77</v>
       </c>
       <c r="C5">
@@ -2575,7 +2669,7 @@
     <col min="6" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" style="95" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="47.44140625" bestFit="1" customWidth="1"/>
@@ -2583,769 +2677,769 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="162"/>
-      <c r="N2" s="98" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="165"/>
+      <c r="N2" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="O2" s="99" t="s">
+      <c r="O2" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="Q2" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="R2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="170" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="172"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="175"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>45234</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>45235</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <v>45241</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="37">
         <v>45245</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="37">
         <v>45255</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="58"/>
-      <c r="N4" s="87" t="s">
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="57"/>
+      <c r="N4" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="O4" s="97">
+      <c r="O4" s="96">
         <v>1</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="Q4" s="62">
         <v>1</v>
       </c>
-      <c r="R4" s="63"/>
+      <c r="R4" s="62"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="167"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="66" t="s">
+      <c r="B5" s="170"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="61"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="97">
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="60"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="96">
         <v>2</v>
       </c>
-      <c r="P5" s="90" t="s">
+      <c r="P5" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="Q5" s="63">
+      <c r="Q5" s="62">
         <v>1</v>
       </c>
-      <c r="R5" s="63"/>
+      <c r="R5" s="62"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="100">
+      <c r="B6" s="99">
         <v>1</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="102" t="s">
+      <c r="G6" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="H6" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="55"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="97">
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="96">
         <v>3</v>
       </c>
-      <c r="P6" s="90" t="s">
+      <c r="P6" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="Q6" s="63">
+      <c r="Q6" s="62">
         <v>1</v>
       </c>
-      <c r="R6" s="63"/>
+      <c r="R6" s="62"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="104">
+      <c r="B7" s="103">
         <v>2</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="44"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="97">
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="96">
         <v>4</v>
       </c>
-      <c r="P7" s="90" t="s">
+      <c r="P7" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" s="63">
+      <c r="Q7" s="62">
         <v>1</v>
       </c>
-      <c r="R7" s="63"/>
+      <c r="R7" s="62"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>3</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="97">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="96">
         <v>5</v>
       </c>
-      <c r="P8" s="90" t="s">
+      <c r="P8" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="Q8" s="63">
-        <v>0</v>
-      </c>
-      <c r="R8" s="63"/>
+      <c r="Q8" s="62">
+        <v>0</v>
+      </c>
+      <c r="R8" s="62"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="104">
+      <c r="B9" s="103">
         <v>4</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="97">
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="96">
         <v>6</v>
       </c>
-      <c r="P9" s="90" t="s">
+      <c r="P9" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="Q9" s="63">
-        <v>0</v>
-      </c>
-      <c r="R9" s="63"/>
+      <c r="Q9" s="62">
+        <v>0</v>
+      </c>
+      <c r="R9" s="62"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="104">
+      <c r="B10" s="103">
         <v>5</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="97">
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="96">
         <v>7</v>
       </c>
-      <c r="P10" s="93" t="s">
+      <c r="P10" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="Q10" s="63">
-        <v>0</v>
-      </c>
-      <c r="R10" s="63"/>
+      <c r="Q10" s="62">
+        <v>0</v>
+      </c>
+      <c r="R10" s="62"/>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="109">
+      <c r="B11" s="108">
         <v>6</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="47"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="97">
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="96">
         <v>8</v>
       </c>
-      <c r="P11" s="90" t="s">
+      <c r="P11" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="Q11" s="63">
-        <v>0</v>
-      </c>
-      <c r="R11" s="63"/>
+      <c r="Q11" s="62">
+        <v>0</v>
+      </c>
+      <c r="R11" s="62"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="95" t="s">
+      <c r="C12" s="168"/>
+      <c r="D12" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="N12" s="63"/>
-      <c r="O12" s="97">
+      <c r="N12" s="62"/>
+      <c r="O12" s="96">
         <v>9</v>
       </c>
-      <c r="P12" s="94" t="s">
+      <c r="P12" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="Q12" s="63">
-        <v>0</v>
-      </c>
-      <c r="R12" s="63"/>
+      <c r="Q12" s="62">
+        <v>0</v>
+      </c>
+      <c r="R12" s="62"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="95" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="N13" s="63"/>
-      <c r="O13" s="97">
+      <c r="N13" s="62"/>
+      <c r="O13" s="96">
         <v>10</v>
       </c>
-      <c r="P13" s="90" t="s">
+      <c r="P13" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="Q13" s="63">
+      <c r="Q13" s="62">
         <v>1</v>
       </c>
-      <c r="R13" s="63"/>
+      <c r="R13" s="62"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="97">
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="96">
         <v>11</v>
       </c>
-      <c r="P14" s="90" t="s">
+      <c r="P14" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="Q14" s="63">
-        <v>0</v>
-      </c>
-      <c r="R14" s="63"/>
+      <c r="Q14" s="62">
+        <v>0</v>
+      </c>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="97">
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="96">
         <v>12</v>
       </c>
-      <c r="P15" s="90" t="s">
+      <c r="P15" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="Q15" s="63">
-        <v>0</v>
-      </c>
-      <c r="R15" s="63"/>
+      <c r="Q15" s="62">
+        <v>0</v>
+      </c>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="N16" s="88" t="s">
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="N16" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="O16" s="97">
+      <c r="O16" s="96">
         <v>13</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="Q16" s="63">
-        <v>0</v>
-      </c>
-      <c r="R16" s="63"/>
+      <c r="Q16" s="62">
+        <v>0</v>
+      </c>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="97">
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="96">
         <v>14</v>
       </c>
-      <c r="P17" s="91" t="s">
+      <c r="P17" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="Q17" s="63">
-        <v>0</v>
-      </c>
-      <c r="R17" s="63"/>
+      <c r="Q17" s="62">
+        <v>0</v>
+      </c>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="97">
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="96">
         <v>15</v>
       </c>
-      <c r="P18" s="91" t="s">
+      <c r="P18" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="Q18" s="63">
-        <v>0</v>
-      </c>
-      <c r="R18" s="63"/>
+      <c r="Q18" s="62">
+        <v>0</v>
+      </c>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N19" s="63"/>
-      <c r="O19" s="97">
+      <c r="N19" s="62"/>
+      <c r="O19" s="96">
         <v>16</v>
       </c>
-      <c r="P19" s="91" t="s">
+      <c r="P19" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="Q19" s="63">
+      <c r="Q19" s="62">
         <v>1</v>
       </c>
-      <c r="R19" s="63"/>
+      <c r="R19" s="62"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N20" s="63"/>
-      <c r="O20" s="97">
+      <c r="N20" s="62"/>
+      <c r="O20" s="96">
         <v>17</v>
       </c>
-      <c r="P20" s="91" t="s">
+      <c r="P20" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="Q20" s="63">
-        <v>0</v>
-      </c>
-      <c r="R20" s="63"/>
+      <c r="Q20" s="62">
+        <v>0</v>
+      </c>
+      <c r="R20" s="62"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N21" s="63"/>
-      <c r="O21" s="97">
+      <c r="N21" s="62"/>
+      <c r="O21" s="96">
         <v>18</v>
       </c>
-      <c r="P21" s="91" t="s">
+      <c r="P21" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="Q21" s="63">
-        <v>0</v>
-      </c>
-      <c r="R21" s="63"/>
+      <c r="Q21" s="62">
+        <v>0</v>
+      </c>
+      <c r="R21" s="62"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N22" s="63"/>
-      <c r="O22" s="97">
+      <c r="N22" s="62"/>
+      <c r="O22" s="96">
         <v>19</v>
       </c>
-      <c r="P22" s="91" t="s">
+      <c r="P22" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="Q22" s="63">
-        <v>0</v>
-      </c>
-      <c r="R22" s="63"/>
+      <c r="Q22" s="62">
+        <v>0</v>
+      </c>
+      <c r="R22" s="62"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N23" s="63"/>
-      <c r="O23" s="97">
+      <c r="N23" s="62"/>
+      <c r="O23" s="96">
         <v>20</v>
       </c>
-      <c r="P23" s="91" t="s">
+      <c r="P23" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="Q23" s="63">
-        <v>0</v>
-      </c>
-      <c r="R23" s="63"/>
+      <c r="Q23" s="62">
+        <v>0</v>
+      </c>
+      <c r="R23" s="62"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N24" s="63"/>
-      <c r="O24" s="97">
+      <c r="N24" s="62"/>
+      <c r="O24" s="96">
         <v>21</v>
       </c>
-      <c r="P24" s="91" t="s">
+      <c r="P24" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="Q24" s="63">
-        <v>0</v>
-      </c>
-      <c r="R24" s="63"/>
+      <c r="Q24" s="62">
+        <v>0</v>
+      </c>
+      <c r="R24" s="62"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N25" s="63"/>
-      <c r="O25" s="97">
+      <c r="N25" s="62"/>
+      <c r="O25" s="96">
         <v>22</v>
       </c>
-      <c r="P25" s="91" t="s">
+      <c r="P25" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="Q25" s="63">
-        <v>0</v>
-      </c>
-      <c r="R25" s="63"/>
+      <c r="Q25" s="62">
+        <v>0</v>
+      </c>
+      <c r="R25" s="62"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N26" s="63"/>
-      <c r="O26" s="97">
+      <c r="N26" s="62"/>
+      <c r="O26" s="96">
         <v>23</v>
       </c>
-      <c r="P26" s="91" t="s">
+      <c r="P26" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="Q26" s="63">
-        <v>0</v>
-      </c>
-      <c r="R26" s="63"/>
+      <c r="Q26" s="62">
+        <v>0</v>
+      </c>
+      <c r="R26" s="62"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N27" s="63"/>
-      <c r="O27" s="97">
+      <c r="N27" s="62"/>
+      <c r="O27" s="96">
         <v>24</v>
       </c>
-      <c r="P27" s="91" t="s">
+      <c r="P27" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="Q27" s="63">
-        <v>0</v>
-      </c>
-      <c r="R27" s="63"/>
+      <c r="Q27" s="62">
+        <v>0</v>
+      </c>
+      <c r="R27" s="62"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N28" s="89" t="s">
+      <c r="N28" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="O28" s="97">
+      <c r="O28" s="96">
         <v>25</v>
       </c>
-      <c r="P28" s="92" t="s">
+      <c r="P28" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="Q28" s="63">
-        <v>0</v>
-      </c>
-      <c r="R28" s="63" t="s">
+      <c r="Q28" s="62">
+        <v>0</v>
+      </c>
+      <c r="R28" s="62" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N29" s="63"/>
-      <c r="O29" s="97">
+      <c r="N29" s="62"/>
+      <c r="O29" s="96">
         <v>26</v>
       </c>
-      <c r="P29" s="92" t="s">
+      <c r="P29" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="Q29" s="63">
+      <c r="Q29" s="62">
         <v>1</v>
       </c>
-      <c r="R29" s="63"/>
+      <c r="R29" s="62"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N30" s="63"/>
-      <c r="O30" s="97">
+      <c r="N30" s="62"/>
+      <c r="O30" s="96">
         <v>27</v>
       </c>
-      <c r="P30" s="92" t="s">
+      <c r="P30" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="Q30" s="63">
-        <v>0</v>
-      </c>
-      <c r="R30" s="63"/>
+      <c r="Q30" s="62">
+        <v>0</v>
+      </c>
+      <c r="R30" s="62"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N31" s="63"/>
-      <c r="O31" s="97">
+      <c r="N31" s="62"/>
+      <c r="O31" s="96">
         <v>28</v>
       </c>
-      <c r="P31" s="92" t="s">
+      <c r="P31" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="Q31" s="63">
-        <v>0</v>
-      </c>
-      <c r="R31" s="63"/>
+      <c r="Q31" s="62">
+        <v>0</v>
+      </c>
+      <c r="R31" s="62"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="N32" s="63"/>
-      <c r="O32" s="97">
+      <c r="N32" s="62"/>
+      <c r="O32" s="96">
         <v>29</v>
       </c>
-      <c r="P32" s="92" t="s">
+      <c r="P32" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="Q32" s="63">
-        <v>0</v>
-      </c>
-      <c r="R32" s="63"/>
+      <c r="Q32" s="62">
+        <v>0</v>
+      </c>
+      <c r="R32" s="62"/>
     </row>
     <row r="33" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N33" s="63"/>
-      <c r="O33" s="97">
+      <c r="N33" s="62"/>
+      <c r="O33" s="96">
         <v>30</v>
       </c>
-      <c r="P33" s="92" t="s">
+      <c r="P33" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="Q33" s="63">
-        <v>0</v>
-      </c>
-      <c r="R33" s="63"/>
+      <c r="Q33" s="62">
+        <v>0</v>
+      </c>
+      <c r="R33" s="62"/>
     </row>
     <row r="34" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N34" s="63"/>
-      <c r="O34" s="97">
+      <c r="N34" s="62"/>
+      <c r="O34" s="96">
         <v>31</v>
       </c>
-      <c r="P34" s="92" t="s">
+      <c r="P34" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="Q34" s="63">
-        <v>0</v>
-      </c>
-      <c r="R34" s="63"/>
+      <c r="Q34" s="62">
+        <v>0</v>
+      </c>
+      <c r="R34" s="62"/>
     </row>
     <row r="35" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N35" s="63"/>
-      <c r="O35" s="97">
+      <c r="N35" s="62"/>
+      <c r="O35" s="96">
         <v>32</v>
       </c>
-      <c r="P35" s="92" t="s">
+      <c r="P35" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="Q35" s="63">
-        <v>0</v>
-      </c>
-      <c r="R35" s="63"/>
+      <c r="Q35" s="62">
+        <v>0</v>
+      </c>
+      <c r="R35" s="62"/>
     </row>
     <row r="36" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N36" s="63"/>
-      <c r="O36" s="97">
+      <c r="N36" s="62"/>
+      <c r="O36" s="96">
         <v>33</v>
       </c>
-      <c r="P36" s="92" t="s">
+      <c r="P36" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="Q36" s="63">
-        <v>0</v>
-      </c>
-      <c r="R36" s="63"/>
+      <c r="Q36" s="62">
+        <v>0</v>
+      </c>
+      <c r="R36" s="62"/>
     </row>
     <row r="37" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N37" s="63"/>
-      <c r="O37" s="97">
+      <c r="N37" s="62"/>
+      <c r="O37" s="96">
         <v>34</v>
       </c>
-      <c r="P37" s="92" t="s">
+      <c r="P37" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="Q37" s="63">
-        <v>0</v>
-      </c>
-      <c r="R37" s="63"/>
+      <c r="Q37" s="62">
+        <v>0</v>
+      </c>
+      <c r="R37" s="62"/>
     </row>
     <row r="38" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N38" s="63"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
     </row>
     <row r="39" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N39" s="63"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="89" t="s">
+      <c r="N39" s="62"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="Q39" s="65">
+      <c r="Q39" s="64">
         <f>SUM(Q4:Q37)</f>
         <v>7</v>
       </c>
-      <c r="R39" s="63"/>
+      <c r="R39" s="62"/>
     </row>
     <row r="40" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N40" s="63"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="89" t="s">
+      <c r="N40" s="62"/>
+      <c r="O40" s="96"/>
+      <c r="P40" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="Q40" s="65">
+      <c r="Q40" s="64">
         <v>34</v>
       </c>
-      <c r="R40" s="63"/>
+      <c r="R40" s="62"/>
     </row>
     <row r="41" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N41" s="63"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="89" t="s">
+      <c r="N41" s="62"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="Q41" s="65">
+      <c r="Q41" s="64">
         <f>ROUND((Q39/Q40)*100,2)</f>
         <v>20.59</v>
       </c>
-      <c r="R41" s="63"/>
+      <c r="R41" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3446,9 +3540,9 @@
         <f>G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="10" t="s">
         <v>27</v>
       </c>
@@ -3523,7 +3617,7 @@
       <c r="K6" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="83">
+      <c r="L6" s="82">
         <v>45239</v>
       </c>
       <c r="M6" s="19" t="s">
@@ -3598,7 +3692,7 @@
       <c r="K9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="83">
         <v>45239</v>
       </c>
       <c r="M9" s="10" t="s">
@@ -3673,7 +3767,7 @@
       <c r="K12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="83">
+      <c r="L12" s="82">
         <v>45239</v>
       </c>
       <c r="M12" s="19" t="s">
@@ -3700,23 +3794,23 @@
       <c r="M13" s="21"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117">
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116">
         <v>3</v>
       </c>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117">
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="118"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="117"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
@@ -3745,7 +3839,7 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="121">
+      <c r="L15" s="120">
         <v>45234</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -3781,18 +3875,18 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="119" t="s">
+      <c r="F18" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="120">
+      <c r="G18" s="119">
         <f>SUM(G3:G17)</f>
         <v>22000</v>
       </c>
-      <c r="H18" s="120">
+      <c r="H18" s="119">
         <f t="shared" ref="H18:I18" si="1">SUM(H3:H17)</f>
         <v>17000</v>
       </c>
-      <c r="I18" s="120">
+      <c r="I18" s="119">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
@@ -3887,7 +3981,7 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3919,7 +4013,7 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="69"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
@@ -3947,38 +4041,38 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="74">
         <f>SUM(F3:G4)</f>
         <v>4500</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="74">
         <f>H5</f>
         <v>4500</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="75">
         <v>45239</v>
       </c>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="77"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="76"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="81" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -4011,8 +4105,8 @@
       <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="70"/>
-      <c r="C7" s="79" t="s">
+      <c r="B7" s="69"/>
+      <c r="C7" s="78" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -4039,7 +4133,7 @@
       <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="71"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -4055,7 +4149,7 @@
         <f>H8</f>
         <v>6000</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="71">
         <v>45239</v>
       </c>
       <c r="K8" s="30"/>
@@ -4067,21 +4161,21 @@
       <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="77">
         <f>SUM(H3:H8)</f>
         <v>10500</v>
       </c>
-      <c r="I9" s="78">
+      <c r="I9" s="77">
         <f>SUM(I3:I8)</f>
         <v>10500</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4123,35 +4217,35 @@
     <col min="10" max="10" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="84" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4168,7 +4262,7 @@
       <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <v>45239</v>
       </c>
       <c r="F2" t="s">
@@ -4200,7 +4294,7 @@
       <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="47">
         <v>45239</v>
       </c>
       <c r="F3" t="s">
@@ -4232,7 +4326,7 @@
       <c r="D4" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="47">
         <v>45239</v>
       </c>
       <c r="F4" t="s">
@@ -4264,7 +4358,7 @@
       <c r="D5" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="47">
         <v>45239</v>
       </c>
       <c r="F5" t="s">
@@ -4296,7 +4390,7 @@
       <c r="D6" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="47">
         <v>45239</v>
       </c>
       <c r="F6" t="s">
@@ -4328,7 +4422,7 @@
       <c r="D7" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <v>45240</v>
       </c>
       <c r="F7" t="s">
@@ -4369,115 +4463,115 @@
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.77734375" style="96" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.77734375" style="95" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="96" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="163" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="162"/>
-      <c r="M2" s="124" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="165"/>
+      <c r="M2" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="124" t="s">
+      <c r="O2" s="123" t="s">
         <v>196</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="170" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="172"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="63"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>45232</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>45239</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <v>45246</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="48">
         <v>45253</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="M4" s="97">
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+      <c r="M4" s="96">
         <v>1</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="97">
-        <v>0</v>
-      </c>
-      <c r="P4" s="63"/>
+      <c r="O4" s="96">
+        <v>0</v>
+      </c>
+      <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="167"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="66" t="s">
+      <c r="B5" s="170"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="M5" s="97">
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="M5" s="96">
         <v>2</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="97">
-        <v>0</v>
-      </c>
-      <c r="P5" s="63"/>
+      <c r="O5" s="96">
+        <v>0</v>
+      </c>
+      <c r="P5" s="62"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
@@ -4486,445 +4580,445 @@
       <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="M6" s="97">
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="M6" s="96">
         <v>3</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="N6" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="O6" s="97">
-        <v>0</v>
-      </c>
-      <c r="P6" s="63"/>
+      <c r="O6" s="96">
+        <v>0</v>
+      </c>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="M7" s="122">
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="M7" s="121">
         <v>4</v>
       </c>
-      <c r="N7" s="123" t="s">
+      <c r="N7" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="O7" s="122">
+      <c r="O7" s="121">
         <v>1</v>
       </c>
-      <c r="P7" s="63"/>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="M8" s="97">
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="M8" s="96">
         <v>5</v>
       </c>
-      <c r="N8" s="63" t="s">
+      <c r="N8" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="O8" s="97">
-        <v>0</v>
-      </c>
-      <c r="P8" s="63"/>
+      <c r="O8" s="96">
+        <v>0</v>
+      </c>
+      <c r="P8" s="62"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="M9" s="97">
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="96">
         <v>6</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="N9" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="97">
-        <v>0</v>
-      </c>
-      <c r="P9" s="63"/>
+      <c r="O9" s="96">
+        <v>0</v>
+      </c>
+      <c r="P9" s="62"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="M10" s="97">
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="M10" s="96">
         <v>7</v>
       </c>
-      <c r="N10" s="63" t="s">
+      <c r="N10" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="O10" s="97">
-        <v>0</v>
-      </c>
-      <c r="P10" s="63"/>
+      <c r="O10" s="96">
+        <v>0</v>
+      </c>
+      <c r="P10" s="62"/>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="97">
+      <c r="B11" s="96">
         <v>6</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="M11" s="97">
+      <c r="C11" s="64"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="M11" s="96">
         <v>8</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="O11" s="97">
-        <v>0</v>
-      </c>
-      <c r="P11" s="63"/>
+      <c r="O11" s="96">
+        <v>0</v>
+      </c>
+      <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="168" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="63" t="s">
+      <c r="C12" s="168"/>
+      <c r="D12" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="M12" s="122">
+      <c r="M12" s="121">
         <v>9</v>
       </c>
-      <c r="N12" s="123" t="s">
+      <c r="N12" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="O12" s="122">
+      <c r="O12" s="121">
         <v>1</v>
       </c>
-      <c r="P12" s="63"/>
+      <c r="P12" s="62"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="M13" s="97">
+      <c r="M13" s="96">
         <v>10</v>
       </c>
-      <c r="N13" s="63" t="s">
+      <c r="N13" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="O13" s="97">
-        <v>0</v>
-      </c>
-      <c r="P13" s="63"/>
+      <c r="O13" s="96">
+        <v>0</v>
+      </c>
+      <c r="P13" s="62"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="M14" s="97">
+      <c r="G14" s="62"/>
+      <c r="M14" s="96">
         <v>11</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="97">
-        <v>0</v>
-      </c>
-      <c r="P14" s="63"/>
+      <c r="O14" s="96">
+        <v>0</v>
+      </c>
+      <c r="P14" s="62"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M15" s="97">
+      <c r="M15" s="96">
         <v>12</v>
       </c>
-      <c r="N15" s="63" t="s">
+      <c r="N15" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="O15" s="97">
-        <v>0</v>
-      </c>
-      <c r="P15" s="63"/>
+      <c r="O15" s="96">
+        <v>0</v>
+      </c>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M16" s="122">
+      <c r="M16" s="121">
         <v>13</v>
       </c>
-      <c r="N16" s="123" t="s">
+      <c r="N16" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="O16" s="122">
+      <c r="O16" s="121">
         <v>1</v>
       </c>
-      <c r="P16" s="63"/>
+      <c r="P16" s="62"/>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M17" s="97">
+      <c r="M17" s="96">
         <v>14</v>
       </c>
-      <c r="N17" s="63" t="s">
+      <c r="N17" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="O17" s="97">
-        <v>0</v>
-      </c>
-      <c r="P17" s="63"/>
+      <c r="O17" s="96">
+        <v>0</v>
+      </c>
+      <c r="P17" s="62"/>
     </row>
     <row r="18" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M18" s="97">
+      <c r="M18" s="96">
         <v>15</v>
       </c>
-      <c r="N18" s="63" t="s">
+      <c r="N18" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="O18" s="97">
-        <v>0</v>
-      </c>
-      <c r="P18" s="63"/>
+      <c r="O18" s="96">
+        <v>0</v>
+      </c>
+      <c r="P18" s="62"/>
     </row>
     <row r="19" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M19" s="97">
+      <c r="M19" s="96">
         <v>16</v>
       </c>
-      <c r="N19" s="63" t="s">
+      <c r="N19" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="O19" s="97">
-        <v>0</v>
-      </c>
-      <c r="P19" s="63"/>
+      <c r="O19" s="96">
+        <v>0</v>
+      </c>
+      <c r="P19" s="62"/>
     </row>
     <row r="20" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M20" s="97">
+      <c r="M20" s="96">
         <v>17</v>
       </c>
-      <c r="N20" s="63" t="s">
+      <c r="N20" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="97">
-        <v>0</v>
-      </c>
-      <c r="P20" s="63"/>
+      <c r="O20" s="96">
+        <v>0</v>
+      </c>
+      <c r="P20" s="62"/>
     </row>
     <row r="21" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M21" s="97">
+      <c r="M21" s="96">
         <v>18</v>
       </c>
-      <c r="N21" s="63" t="s">
+      <c r="N21" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="97">
-        <v>0</v>
-      </c>
-      <c r="P21" s="63"/>
+      <c r="O21" s="96">
+        <v>0</v>
+      </c>
+      <c r="P21" s="62"/>
     </row>
     <row r="22" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M22" s="97">
+      <c r="M22" s="96">
         <v>19</v>
       </c>
-      <c r="N22" s="63" t="s">
+      <c r="N22" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="O22" s="97">
-        <v>0</v>
-      </c>
-      <c r="P22" s="63"/>
+      <c r="O22" s="96">
+        <v>0</v>
+      </c>
+      <c r="P22" s="62"/>
     </row>
     <row r="23" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M23" s="97">
+      <c r="M23" s="96">
         <v>20</v>
       </c>
-      <c r="N23" s="63" t="s">
+      <c r="N23" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="O23" s="97">
-        <v>0</v>
-      </c>
-      <c r="P23" s="63"/>
+      <c r="O23" s="96">
+        <v>0</v>
+      </c>
+      <c r="P23" s="62"/>
     </row>
     <row r="24" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M24" s="97">
+      <c r="M24" s="96">
         <v>21</v>
       </c>
-      <c r="N24" s="63" t="s">
+      <c r="N24" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="O24" s="97">
-        <v>0</v>
-      </c>
-      <c r="P24" s="63"/>
+      <c r="O24" s="96">
+        <v>0</v>
+      </c>
+      <c r="P24" s="62"/>
     </row>
     <row r="25" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M25" s="97">
+      <c r="M25" s="96">
         <v>22</v>
       </c>
-      <c r="N25" s="63" t="s">
+      <c r="N25" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="O25" s="97">
-        <v>0</v>
-      </c>
-      <c r="P25" s="63"/>
+      <c r="O25" s="96">
+        <v>0</v>
+      </c>
+      <c r="P25" s="62"/>
     </row>
     <row r="26" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M26" s="97">
+      <c r="M26" s="96">
         <v>23</v>
       </c>
-      <c r="N26" s="63" t="s">
+      <c r="N26" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="O26" s="97">
-        <v>0</v>
-      </c>
-      <c r="P26" s="63"/>
+      <c r="O26" s="96">
+        <v>0</v>
+      </c>
+      <c r="P26" s="62"/>
     </row>
     <row r="27" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M27" s="97">
+      <c r="M27" s="96">
         <v>24</v>
       </c>
-      <c r="N27" s="63" t="s">
+      <c r="N27" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="O27" s="97">
-        <v>0</v>
-      </c>
-      <c r="P27" s="63"/>
+      <c r="O27" s="96">
+        <v>0</v>
+      </c>
+      <c r="P27" s="62"/>
     </row>
     <row r="28" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M28" s="97">
+      <c r="M28" s="96">
         <v>25</v>
       </c>
-      <c r="N28" s="63" t="s">
+      <c r="N28" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="O28" s="97">
-        <v>0</v>
-      </c>
-      <c r="P28" s="63"/>
+      <c r="O28" s="96">
+        <v>0</v>
+      </c>
+      <c r="P28" s="62"/>
     </row>
     <row r="29" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M29" s="97">
+      <c r="M29" s="96">
         <v>26</v>
       </c>
-      <c r="N29" s="63" t="s">
+      <c r="N29" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="O29" s="97">
-        <v>0</v>
-      </c>
-      <c r="P29" s="63"/>
+      <c r="O29" s="96">
+        <v>0</v>
+      </c>
+      <c r="P29" s="62"/>
     </row>
     <row r="30" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M30" s="97"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="63"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="62"/>
     </row>
     <row r="31" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M31" s="97"/>
-      <c r="N31" s="65" t="s">
+      <c r="M31" s="96"/>
+      <c r="N31" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="O31" s="124">
+      <c r="O31" s="123">
         <f>SUM(O4:O29)</f>
         <v>3</v>
       </c>
-      <c r="P31" s="63"/>
+      <c r="P31" s="62"/>
     </row>
     <row r="32" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M32" s="97"/>
-      <c r="N32" s="65" t="s">
+      <c r="M32" s="96"/>
+      <c r="N32" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="O32" s="124">
+      <c r="O32" s="123">
         <f>COUNT(O4:O29)</f>
         <v>26</v>
       </c>
-      <c r="P32" s="63"/>
+      <c r="P32" s="62"/>
     </row>
     <row r="33" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M33" s="97"/>
-      <c r="N33" s="65" t="s">
+      <c r="M33" s="96"/>
+      <c r="N33" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="O33" s="124">
+      <c r="O33" s="123">
         <f>ROUND((O31/O32)*100,2)</f>
         <v>11.54</v>
       </c>
-      <c r="P33" s="63"/>
+      <c r="P33" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4941,10 +5035,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A980A2-087E-4BDA-864D-B7CC763A9F65}">
-  <dimension ref="B1:P16"/>
+  <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4954,358 +5048,385 @@
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="160" t="s">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="162"/>
-      <c r="M2" s="124" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="190"/>
+      <c r="L2" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="M2" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="124" t="s">
+      <c r="N2" s="123" t="s">
         <v>196</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="O2" s="64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="170" t="s">
+    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="172"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="63"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="166" t="s">
+      <c r="I3" s="174"/>
+      <c r="J3" s="175"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="62"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>45232</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>45239</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <v>45246</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="192">
         <v>45253</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="M4" s="97">
+      <c r="H4" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="114" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="96">
         <v>1</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="M4" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="97">
-        <v>0</v>
-      </c>
-      <c r="P4" s="63"/>
-    </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="167"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="39" t="s">
+      <c r="N4" s="96">
+        <v>0</v>
+      </c>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="170"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="193" t="s">
         <v>244</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="M5" s="122">
+      <c r="L5" s="121">
         <v>2</v>
       </c>
-      <c r="N5" s="123" t="s">
+      <c r="M5" s="122" t="s">
         <v>199</v>
       </c>
-      <c r="O5" s="122">
+      <c r="N5" s="121">
         <v>1</v>
       </c>
-      <c r="P5" s="63"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O5" s="62"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
         <v>1</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="194" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="M6" s="97">
+      <c r="H6" s="155">
+        <v>100</v>
+      </c>
+      <c r="I6" s="53">
+        <v>21</v>
+      </c>
+      <c r="J6" s="54">
+        <f>ROUND((I6/H6)*100,2)</f>
+        <v>21</v>
+      </c>
+      <c r="L6" s="96">
         <v>3</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="M6" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="O6" s="97">
-        <v>0</v>
-      </c>
-      <c r="P6" s="63"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N6" s="96">
+        <v>0</v>
+      </c>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="43"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="M7" s="97">
+      <c r="L7" s="96">
         <v>4</v>
       </c>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="97">
-        <v>0</v>
-      </c>
-      <c r="P7" s="63"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N7" s="96">
+        <v>0</v>
+      </c>
+      <c r="O7" s="62"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="43"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="M8" s="97">
+      <c r="L8" s="96">
         <v>5</v>
       </c>
-      <c r="N8" s="63" t="s">
+      <c r="M8" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="O8" s="97">
-        <v>0</v>
-      </c>
-      <c r="P8" s="63"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N8" s="96">
+        <v>0</v>
+      </c>
+      <c r="O8" s="62"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="43"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="M9" s="97">
+      <c r="L9" s="96">
         <v>6</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="M9" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="O9" s="97">
-        <v>0</v>
-      </c>
-      <c r="P9" s="63"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N9" s="96">
+        <v>0</v>
+      </c>
+      <c r="O9" s="62"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="43"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="M10" s="97">
+      <c r="L10" s="96">
         <v>7</v>
       </c>
-      <c r="N10" s="63" t="s">
+      <c r="M10" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="O10" s="97">
-        <v>0</v>
-      </c>
-      <c r="P10" s="63"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="35">
+      <c r="N10" s="96">
+        <v>0</v>
+      </c>
+      <c r="O10" s="62"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="127">
         <v>6</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="M11" s="97">
+      <c r="C11" s="128"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="132"/>
+      <c r="L11" s="96">
         <v>8</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="M11" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="O11" s="97">
-        <v>0</v>
-      </c>
-      <c r="P11" s="63"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="173" t="s">
+      <c r="N11" s="96">
+        <v>0</v>
+      </c>
+      <c r="O11" s="62"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="197" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="125" t="s">
+      <c r="C12" s="196"/>
+      <c r="D12" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="M12" s="97"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="63"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63" t="s">
+      <c r="H12" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="J12" s="138">
+        <v>45255</v>
+      </c>
+      <c r="L12" s="96"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="62"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="137"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="M13" s="97"/>
-      <c r="N13" s="65" t="s">
+      <c r="H13" s="124" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="34"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="O13" s="124">
-        <f>SUM(O4:O11)</f>
+      <c r="N13" s="123">
+        <f>SUM(N4:N11)</f>
         <v>1</v>
       </c>
-      <c r="P13" s="63"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63" t="s">
+      <c r="O13" s="62"/>
+    </row>
+    <row r="14" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="139"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="65" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="35"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="124">
-        <f>COUNT(O4:O11)</f>
+      <c r="N14" s="123">
+        <f>COUNT(N4:N11)</f>
         <v>8</v>
       </c>
-      <c r="P14" s="63"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M15" s="97"/>
-      <c r="N15" s="65" t="s">
+      <c r="O14" s="62"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L15" s="96"/>
+      <c r="M15" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="O15" s="124">
-        <f>ROUND((O13/O14)*100,2)</f>
+      <c r="N15" s="123">
+        <f>ROUND((N13/N14)*100,2)</f>
         <v>12.5</v>
       </c>
-      <c r="P15" s="63"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M16" s="96"/>
-      <c r="O16" s="96"/>
+      <c r="O15" s="62"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L16" s="95"/>
+      <c r="N16" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B2:G3"/>
-    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5317,7 +5438,7 @@
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K4" sqref="K4:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,135 +5461,135 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="180" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="149"/>
-      <c r="O2" s="99" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="147"/>
+      <c r="O2" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="99" t="s">
+      <c r="Q2" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="R2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="175" t="s">
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="171"/>
-      <c r="M3" s="172"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="63"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="175"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="62"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D4" s="125">
         <v>45234</v>
       </c>
-      <c r="E4" s="128">
+      <c r="E4" s="126">
         <v>45235</v>
       </c>
-      <c r="F4" s="127">
+      <c r="F4" s="125">
         <v>45241</v>
       </c>
-      <c r="G4" s="128">
+      <c r="G4" s="126">
         <v>45248</v>
       </c>
-      <c r="H4" s="128">
+      <c r="H4" s="126">
         <v>45249</v>
       </c>
-      <c r="I4" s="150">
+      <c r="I4" s="148">
         <v>45255</v>
       </c>
-      <c r="J4" s="158">
+      <c r="J4" s="156">
         <v>45256</v>
       </c>
-      <c r="K4" s="155" t="s">
+      <c r="K4" s="153" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="115" t="s">
+      <c r="M4" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="O4" s="122">
+      <c r="O4" s="121">
         <v>1</v>
       </c>
-      <c r="P4" s="123" t="s">
+      <c r="P4" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="Q4" s="122">
+      <c r="Q4" s="121">
         <v>1</v>
       </c>
-      <c r="R4" s="123"/>
+      <c r="R4" s="122"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="167"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="62" t="s">
+      <c r="B5" s="170"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="151" t="s">
+      <c r="I5" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="159" t="s">
+      <c r="J5" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="156"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="O5" s="122">
+      <c r="K5" s="154"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="60"/>
+      <c r="O5" s="121">
         <v>2</v>
       </c>
-      <c r="P5" s="123" t="s">
+      <c r="P5" s="122" t="s">
         <v>226</v>
       </c>
-      <c r="Q5" s="122">
+      <c r="Q5" s="121">
         <v>1</v>
       </c>
-      <c r="R5" s="123"/>
+      <c r="R5" s="122"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
@@ -5477,370 +5598,370 @@
       <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="152" t="s">
+      <c r="I6" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="157">
+      <c r="K6" s="155">
         <v>42</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="53">
         <v>10</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6" s="54">
         <f>ROUND((L6/K6)*100,2)</f>
         <v>23.81</v>
       </c>
-      <c r="O6" s="97">
+      <c r="O6" s="96">
         <v>3</v>
       </c>
-      <c r="P6" s="63" t="s">
+      <c r="P6" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="Q6" s="97">
-        <v>0</v>
-      </c>
-      <c r="R6" s="63"/>
+      <c r="Q6" s="96">
+        <v>0</v>
+      </c>
+      <c r="R6" s="62"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="O7" s="122">
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="O7" s="121">
         <v>4</v>
       </c>
-      <c r="P7" s="123" t="s">
+      <c r="P7" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="Q7" s="122">
+      <c r="Q7" s="121">
         <v>1</v>
       </c>
-      <c r="R7" s="123"/>
+      <c r="R7" s="122"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="O8" s="97">
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="O8" s="96">
         <v>5</v>
       </c>
-      <c r="P8" s="63" t="s">
+      <c r="P8" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="Q8" s="97">
-        <v>0</v>
-      </c>
-      <c r="R8" s="63"/>
+      <c r="Q8" s="96">
+        <v>0</v>
+      </c>
+      <c r="R8" s="62"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="O9" s="122">
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="O9" s="121">
         <v>6</v>
       </c>
-      <c r="P9" s="123" t="s">
+      <c r="P9" s="122" t="s">
         <v>230</v>
       </c>
-      <c r="Q9" s="122">
+      <c r="Q9" s="121">
         <v>1</v>
       </c>
-      <c r="R9" s="123"/>
+      <c r="R9" s="122"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="O10" s="97">
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="O10" s="96">
         <v>7</v>
       </c>
-      <c r="P10" s="63" t="s">
+      <c r="P10" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="Q10" s="97">
-        <v>0</v>
-      </c>
-      <c r="R10" s="63"/>
+      <c r="Q10" s="96">
+        <v>0</v>
+      </c>
+      <c r="R10" s="62"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="33">
         <v>6</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="134"/>
-      <c r="O11" s="122">
+      <c r="C11" s="62"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="132"/>
+      <c r="O11" s="121">
         <v>8</v>
       </c>
-      <c r="P11" s="123" t="s">
+      <c r="P11" s="122" t="s">
         <v>232</v>
       </c>
-      <c r="Q11" s="122">
+      <c r="Q11" s="121">
         <v>1</v>
       </c>
-      <c r="R11" s="123"/>
+      <c r="R11" s="122"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63" t="s">
+      <c r="C12" s="168"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="I12" s="153" t="s">
+      <c r="I12" s="151" t="s">
         <v>247</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="K12" s="126" t="s">
+      <c r="K12" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="M12" s="140">
+      <c r="M12" s="138">
         <v>45255</v>
       </c>
-      <c r="O12" s="97">
+      <c r="O12" s="96">
         <v>9</v>
       </c>
-      <c r="P12" s="63" t="s">
+      <c r="P12" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="Q12" s="97">
-        <v>0</v>
-      </c>
-      <c r="R12" s="63"/>
+      <c r="Q12" s="96">
+        <v>0</v>
+      </c>
+      <c r="R12" s="62"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="139"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63" t="s">
+      <c r="B13" s="137"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="153" t="s">
+      <c r="H13" s="62"/>
+      <c r="I13" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="126" t="s">
+      <c r="J13" s="62"/>
+      <c r="K13" s="124" t="s">
         <v>249</v>
       </c>
-      <c r="L13" s="63"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="34"/>
-      <c r="O13" s="97">
+      <c r="O13" s="96">
         <v>10</v>
       </c>
-      <c r="P13" s="63" t="s">
+      <c r="P13" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="Q13" s="97">
-        <v>0</v>
-      </c>
-      <c r="R13" s="63"/>
+      <c r="Q13" s="96">
+        <v>0</v>
+      </c>
+      <c r="R13" s="62"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="139"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="126" t="s">
+      <c r="B14" s="137"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="L14" s="63"/>
+      <c r="L14" s="62"/>
       <c r="M14" s="34"/>
-      <c r="O14" s="97">
+      <c r="O14" s="96">
         <v>11</v>
       </c>
-      <c r="P14" s="63" t="s">
+      <c r="P14" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="Q14" s="97">
-        <v>0</v>
-      </c>
-      <c r="R14" s="63"/>
+      <c r="Q14" s="96">
+        <v>0</v>
+      </c>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="141"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="36"/>
-      <c r="O15" s="97">
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="35"/>
+      <c r="O15" s="96">
         <v>12</v>
       </c>
-      <c r="P15" s="63" t="s">
+      <c r="P15" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="Q15" s="97">
-        <v>0</v>
-      </c>
-      <c r="R15" s="63"/>
+      <c r="Q15" s="96">
+        <v>0</v>
+      </c>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="O16" s="97">
+      <c r="O16" s="96">
         <v>13</v>
       </c>
-      <c r="P16" s="63" t="s">
+      <c r="P16" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="Q16" s="97">
-        <v>0</v>
-      </c>
-      <c r="R16" s="63"/>
+      <c r="Q16" s="96">
+        <v>0</v>
+      </c>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="13:18" x14ac:dyDescent="0.3">
-      <c r="O17" s="97">
+      <c r="O17" s="96">
         <v>14</v>
       </c>
-      <c r="P17" s="63" t="s">
+      <c r="P17" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="Q17" s="97">
-        <v>0</v>
-      </c>
-      <c r="R17" s="63"/>
+      <c r="Q17" s="96">
+        <v>0</v>
+      </c>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="13:18" x14ac:dyDescent="0.3">
-      <c r="O18" s="97">
+      <c r="O18" s="96">
         <v>15</v>
       </c>
-      <c r="P18" s="63" t="s">
+      <c r="P18" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="Q18" s="97">
-        <v>0</v>
-      </c>
-      <c r="R18" s="63"/>
+      <c r="Q18" s="96">
+        <v>0</v>
+      </c>
+      <c r="R18" s="62"/>
     </row>
     <row r="21" spans="13:18" x14ac:dyDescent="0.3">
-      <c r="O21" s="97"/>
-      <c r="P21" s="65" t="s">
+      <c r="O21" s="96"/>
+      <c r="P21" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="Q21" s="124">
+      <c r="Q21" s="123">
         <f>SUM(Q4:Q15)</f>
         <v>5</v>
       </c>
-      <c r="R21" s="63"/>
+      <c r="R21" s="62"/>
     </row>
     <row r="22" spans="13:18" x14ac:dyDescent="0.3">
-      <c r="O22" s="97"/>
-      <c r="P22" s="65" t="s">
+      <c r="O22" s="96"/>
+      <c r="P22" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="Q22" s="124">
+      <c r="Q22" s="123">
         <f>COUNT(Q4:Q18)</f>
         <v>15</v>
       </c>
-      <c r="R22" s="63"/>
+      <c r="R22" s="62"/>
     </row>
     <row r="23" spans="13:18" x14ac:dyDescent="0.3">
-      <c r="O23" s="97"/>
-      <c r="P23" s="65" t="s">
+      <c r="O23" s="96"/>
+      <c r="P23" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="Q23" s="124">
+      <c r="Q23" s="123">
         <f>ROUND((Q21/Q22)*100,2)</f>
         <v>33.33</v>
       </c>
-      <c r="R23" s="63"/>
+      <c r="R23" s="62"/>
     </row>
     <row r="24" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M24" t="s">
@@ -5864,7 +5985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -5888,133 +6009,133 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="180" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="190"/>
-      <c r="O2" s="99" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="160"/>
+      <c r="O2" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="99" t="s">
+      <c r="Q2" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="R2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="187"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="63"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="188"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="62"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D4" s="125">
         <v>45234</v>
       </c>
-      <c r="E4" s="128">
+      <c r="E4" s="126">
         <v>45235</v>
       </c>
-      <c r="F4" s="127">
+      <c r="F4" s="125">
         <v>45241</v>
       </c>
-      <c r="G4" s="128">
+      <c r="G4" s="126">
         <v>45248</v>
       </c>
-      <c r="H4" s="128">
+      <c r="H4" s="126">
         <v>45249</v>
       </c>
-      <c r="I4" s="188">
+      <c r="I4" s="158">
         <v>45255</v>
       </c>
-      <c r="J4" s="128">
+      <c r="J4" s="126">
         <v>45256</v>
       </c>
-      <c r="K4" s="143" t="s">
+      <c r="K4" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="135" t="s">
+      <c r="L4" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="137" t="s">
+      <c r="M4" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="O4" s="122">
+      <c r="O4" s="121">
         <v>1</v>
       </c>
-      <c r="P4" s="123" t="s">
+      <c r="P4" s="122" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="122">
+      <c r="Q4" s="121">
         <v>1</v>
       </c>
-      <c r="R4" s="123"/>
+      <c r="R4" s="122"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="167"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="62" t="s">
+      <c r="B5" s="170"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="151" t="s">
+      <c r="I5" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="192" t="s">
+      <c r="J5" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="144"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="138"/>
-      <c r="O5" s="122">
+      <c r="K5" s="142"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="136"/>
+      <c r="O5" s="121">
         <v>2</v>
       </c>
-      <c r="P5" s="123" t="s">
+      <c r="P5" s="122" t="s">
         <v>217</v>
       </c>
-      <c r="Q5" s="122">
+      <c r="Q5" s="121">
         <v>1</v>
       </c>
-      <c r="R5" s="123"/>
+      <c r="R5" s="122"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
@@ -6023,73 +6144,73 @@
       <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="189" t="s">
+      <c r="I6" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="41">
         <v>48</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="42">
         <v>9</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="43">
         <f>(L6/K6)*100</f>
         <v>18.75</v>
       </c>
-      <c r="O6" s="122">
+      <c r="O6" s="121">
         <v>3</v>
       </c>
-      <c r="P6" s="123" t="s">
+      <c r="P6" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="Q6" s="122">
+      <c r="Q6" s="121">
         <v>1</v>
       </c>
-      <c r="R6" s="123"/>
+      <c r="R6" s="122"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="O7" s="97">
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="O7" s="96">
         <v>4</v>
       </c>
-      <c r="P7" s="63" t="s">
+      <c r="P7" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="Q7" s="97">
-        <v>0</v>
-      </c>
-      <c r="R7" s="63" t="s">
+      <c r="Q7" s="96">
+        <v>0</v>
+      </c>
+      <c r="R7" s="62" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6098,259 +6219,259 @@
         <v>3</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="O8" s="97">
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="O8" s="96">
         <v>5</v>
       </c>
-      <c r="P8" s="63" t="s">
+      <c r="P8" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="Q8" s="97">
-        <v>0</v>
-      </c>
-      <c r="R8" s="63"/>
+      <c r="Q8" s="96">
+        <v>0</v>
+      </c>
+      <c r="R8" s="62"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="O9" s="97">
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="O9" s="96">
         <v>6</v>
       </c>
-      <c r="P9" s="63" t="s">
+      <c r="P9" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="Q9" s="97">
-        <v>0</v>
-      </c>
-      <c r="R9" s="63"/>
+      <c r="Q9" s="96">
+        <v>0</v>
+      </c>
+      <c r="R9" s="62"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="O10" s="97">
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="O10" s="96">
         <v>7</v>
       </c>
-      <c r="P10" s="63" t="s">
+      <c r="P10" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="Q10" s="97">
-        <v>0</v>
-      </c>
-      <c r="R10" s="63"/>
+      <c r="Q10" s="96">
+        <v>0</v>
+      </c>
+      <c r="R10" s="62"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="129">
+      <c r="B11" s="127">
         <v>6</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="O11" s="97">
+      <c r="C11" s="128"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="O11" s="96">
         <v>8</v>
       </c>
-      <c r="P11" s="63" t="s">
+      <c r="P11" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="Q11" s="97">
-        <v>0</v>
-      </c>
-      <c r="R11" s="63"/>
+      <c r="Q11" s="96">
+        <v>0</v>
+      </c>
+      <c r="R11" s="62"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63" t="s">
+      <c r="C12" s="168"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="I12" s="153" t="s">
+      <c r="I12" s="151" t="s">
         <v>245</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="K12" s="126" t="s">
+      <c r="K12" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="M12" s="140">
+      <c r="M12" s="138">
         <v>45249</v>
       </c>
-      <c r="O12" s="97">
+      <c r="O12" s="96">
         <v>9</v>
       </c>
-      <c r="P12" s="63" t="s">
+      <c r="P12" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="Q12" s="97">
-        <v>0</v>
-      </c>
-      <c r="R12" s="63"/>
+      <c r="Q12" s="96">
+        <v>0</v>
+      </c>
+      <c r="R12" s="62"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="139"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63" t="s">
+      <c r="B13" s="137"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="I13" s="153"/>
-      <c r="J13" s="63" t="s">
+      <c r="I13" s="151"/>
+      <c r="J13" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="K13" s="126" t="s">
+      <c r="K13" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="L13" s="63"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="34"/>
-      <c r="O13" s="97">
+      <c r="O13" s="96">
         <v>10</v>
       </c>
-      <c r="P13" s="63" t="s">
+      <c r="P13" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="Q13" s="97">
-        <v>0</v>
-      </c>
-      <c r="R13" s="63"/>
+      <c r="Q13" s="96">
+        <v>0</v>
+      </c>
+      <c r="R13" s="62"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="139"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63" t="s">
+      <c r="B14" s="137"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="126" t="s">
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="L14" s="63"/>
+      <c r="L14" s="62"/>
       <c r="M14" s="34"/>
-      <c r="O14" s="97">
+      <c r="O14" s="96">
         <v>11</v>
       </c>
-      <c r="P14" s="63" t="s">
+      <c r="P14" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="Q14" s="97">
-        <v>0</v>
-      </c>
-      <c r="R14" s="63"/>
+      <c r="Q14" s="96">
+        <v>0</v>
+      </c>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="141"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="145" t="s">
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="143" t="s">
         <v>190</v>
       </c>
-      <c r="L15" s="142"/>
-      <c r="M15" s="36"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="O16" s="97"/>
-      <c r="P16" s="65" t="s">
+      <c r="O16" s="96"/>
+      <c r="P16" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="Q16" s="124">
+      <c r="Q16" s="123">
         <f>SUM(Q4:Q14)</f>
         <v>3</v>
       </c>
-      <c r="R16" s="63"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="15:18" x14ac:dyDescent="0.3">
-      <c r="O17" s="97"/>
-      <c r="P17" s="65" t="s">
+      <c r="O17" s="96"/>
+      <c r="P17" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="Q17" s="124">
+      <c r="Q17" s="123">
         <f>COUNT(Q4:Q14)</f>
         <v>11</v>
       </c>
-      <c r="R17" s="63"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="15:18" x14ac:dyDescent="0.3">
-      <c r="O18" s="97"/>
-      <c r="P18" s="65" t="s">
+      <c r="O18" s="96"/>
+      <c r="P18" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="Q18" s="124">
+      <c r="Q18" s="123">
         <f>ROUND((Q16/Q17)*100,2)</f>
         <v>27.27</v>
       </c>
-      <c r="R18" s="63"/>
+      <c r="R18" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
